--- a/temp_baiaoyun_trait_model.xlsx
+++ b/temp_baiaoyun_trait_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E720F-588D-429C-BB74-C780DE332E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3D37E-8E53-4ECB-8AF3-135A5FB59484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trait_template" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="202">
   <si>
     <t>编码TRAIT_CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -774,12 +774,16 @@
     <t>1-披针,2-卵圆,3-椭圆,99-分离</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>bozhongqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +832,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -898,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -947,11 +966,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1307,45 +1380,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1457,17 +1491,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:M55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="12">
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="性状名称TRAIT_NAME" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="名称缩写ABBR_NAME" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="性状类型TRAIT_TYPE" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="单位UNIT" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="最小值MIN_VALUE" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="最大值MAX_VALUE" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="精度SCALE" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="排序ORDER" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="列表值LIST,VALUES" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CATEGORY" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="性状分组TRAIT_GROUP" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="计算公式FORMULA" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="名称缩写ABBR_NAME" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="性状类型TRAIT_TYPE" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="单位UNIT" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="最小值MIN_VALUE" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="最大值MAX_VALUE" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="精度SCALE" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="排序ORDER" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="列表值LIST,VALUES" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CATEGORY" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="性状分组TRAIT_GROUP" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="计算公式FORMULA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1774,14 +1808,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.08203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="21.08203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="2" customWidth="1"/>
@@ -1814,7 +1848,7 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1855,8 +1889,8 @@
       <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
+      <c r="C3" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="D3" s="15">
         <v>2</v>
@@ -1884,8 +1918,8 @@
       <c r="B4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>14</v>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="15">
         <v>2</v>
@@ -1913,8 +1947,8 @@
       <c r="B5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>15</v>
+      <c r="C5" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="15">
         <v>3</v>
@@ -1944,8 +1978,8 @@
       <c r="B6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="15">
         <v>3</v>
@@ -1975,8 +2009,8 @@
       <c r="B7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
+      <c r="C7" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="15">
         <v>3</v>
@@ -2006,8 +2040,8 @@
       <c r="B8" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
+      <c r="C8" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="15">
         <v>3</v>
@@ -2037,8 +2071,8 @@
       <c r="B9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>19</v>
+      <c r="C9" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="15">
         <v>2</v>
@@ -2066,8 +2100,8 @@
       <c r="B10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
+      <c r="C10" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="15">
         <v>3</v>
@@ -2097,8 +2131,8 @@
       <c r="B11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
+      <c r="C11" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="15">
         <v>3</v>
@@ -2128,8 +2162,8 @@
       <c r="B12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>22</v>
+      <c r="C12" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="15">
         <v>3</v>
@@ -2159,8 +2193,8 @@
       <c r="B13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>23</v>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="15">
         <v>3</v>
@@ -2190,8 +2224,8 @@
       <c r="B14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>24</v>
+      <c r="C14" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="15">
         <v>3</v>
@@ -2221,8 +2255,8 @@
       <c r="B15" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>25</v>
+      <c r="C15" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="15">
         <v>3</v>
@@ -2252,8 +2286,8 @@
       <c r="B16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>26</v>
+      <c r="C16" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="15">
         <v>3</v>
@@ -2283,8 +2317,8 @@
       <c r="B17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>27</v>
+      <c r="C17" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="15">
         <v>2</v>
@@ -2312,8 +2346,8 @@
       <c r="B18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
+      <c r="C18" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="15">
         <v>3</v>
@@ -2343,8 +2377,8 @@
       <c r="B19" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>29</v>
+      <c r="C19" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="15">
         <v>3</v>
@@ -2374,8 +2408,8 @@
       <c r="B20" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>30</v>
+      <c r="C20" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="15">
         <v>3</v>
@@ -2405,8 +2439,8 @@
       <c r="B21" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>31</v>
+      <c r="C21" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="15">
         <v>2</v>
@@ -2434,8 +2468,8 @@
       <c r="B22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>32</v>
+      <c r="C22" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="15">
         <v>3</v>
@@ -2465,8 +2499,8 @@
       <c r="B23" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
+      <c r="C23" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="15">
         <v>2</v>
@@ -2494,8 +2528,8 @@
       <c r="B24" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>34</v>
+      <c r="C24" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="15">
         <v>4</v>
@@ -2523,8 +2557,8 @@
       <c r="B25" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>35</v>
+      <c r="C25" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -2558,8 +2592,8 @@
       <c r="B26" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>36</v>
+      <c r="C26" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="15">
         <v>3</v>
@@ -2589,8 +2623,8 @@
       <c r="B27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>37</v>
+      <c r="C27" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="15">
         <v>3</v>
@@ -2620,8 +2654,8 @@
       <c r="B28" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>38</v>
+      <c r="C28" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="15">
         <v>3</v>
@@ -2651,8 +2685,8 @@
       <c r="B29" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>39</v>
+      <c r="C29" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="15">
         <v>3</v>
@@ -2682,8 +2716,8 @@
       <c r="B30" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>40</v>
+      <c r="C30" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
@@ -2719,8 +2753,8 @@
       <c r="B31" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>41</v>
+      <c r="C31" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -2756,8 +2790,8 @@
       <c r="B32" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>42</v>
+      <c r="C32" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
@@ -2791,8 +2825,8 @@
       <c r="B33" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>43</v>
+      <c r="C33" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -2826,8 +2860,8 @@
       <c r="B34" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>44</v>
+      <c r="C34" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
@@ -2861,8 +2895,8 @@
       <c r="B35" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>45</v>
+      <c r="C35" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
@@ -2896,8 +2930,8 @@
       <c r="B36" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>46</v>
+      <c r="C36" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
@@ -2933,8 +2967,8 @@
       <c r="B37" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>47</v>
+      <c r="C37" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D37" s="15">
         <v>4</v>
@@ -2962,8 +2996,8 @@
       <c r="B38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>48</v>
+      <c r="C38" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
@@ -2999,8 +3033,8 @@
       <c r="B39" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>49</v>
+      <c r="C39" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D39" s="15">
         <v>3</v>
@@ -3030,8 +3064,8 @@
       <c r="B40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>50</v>
+      <c r="C40" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D40" s="15">
         <v>3</v>
@@ -3061,8 +3095,8 @@
       <c r="B41" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>51</v>
+      <c r="C41" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="15">
         <v>3</v>
@@ -3092,8 +3126,8 @@
       <c r="B42" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>52</v>
+      <c r="C42" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D42" s="15">
         <v>3</v>
@@ -3123,8 +3157,8 @@
       <c r="B43" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>53</v>
+      <c r="C43" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D43" s="15">
         <v>3</v>
@@ -3154,8 +3188,8 @@
       <c r="B44" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>54</v>
+      <c r="C44" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="D44" s="15">
         <v>3</v>
@@ -3185,8 +3219,8 @@
       <c r="B45" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>55</v>
+      <c r="C45" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="15">
         <v>4</v>
@@ -3214,8 +3248,8 @@
       <c r="B46" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>56</v>
+      <c r="C46" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
@@ -3251,8 +3285,8 @@
       <c r="B47" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>57</v>
+      <c r="C47" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -3288,8 +3322,8 @@
       <c r="B48" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>58</v>
+      <c r="C48" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
@@ -3325,8 +3359,8 @@
       <c r="B49" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>59</v>
+      <c r="C49" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -3362,8 +3396,8 @@
       <c r="B50" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>60</v>
+      <c r="C50" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="15">
         <v>4</v>
@@ -3391,8 +3425,8 @@
       <c r="B51" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>61</v>
+      <c r="C51" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="D51" s="15">
         <v>4</v>
@@ -3420,8 +3454,8 @@
       <c r="B52" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>62</v>
+      <c r="C52" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D52" s="15">
         <v>4</v>
@@ -3449,8 +3483,8 @@
       <c r="B53" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>63</v>
+      <c r="C53" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -3484,8 +3518,8 @@
       <c r="B54" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>64</v>
+      <c r="C54" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D54" s="15">
         <v>1</v>
@@ -3519,7 +3553,9 @@
       <c r="B55" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="D55" s="15">
         <v>1</v>
       </c>
